--- a/cyber_web/excels/Book3.xlsx
+++ b/cyber_web/excels/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot_txdg204\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CC9FC-172F-4603-8F47-FAB3B9C5BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6FF467-EF72-4CE0-AFF3-1C4951283E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0EAF7427-6527-4BD1-A40E-84EFB0A0AD13}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>Date Created</t>
   </si>
@@ -551,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,13 +569,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -697,9 +690,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,13 +709,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,7 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48225BD9-5D0D-4CD8-851A-5EF0CD1049E1}">
   <dimension ref="A1:O997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1090,10 +1082,10 @@
       <c r="B2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="3"/>
@@ -1115,10 +1107,10 @@
       <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="3"/>
@@ -1140,10 +1132,10 @@
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3"/>
@@ -1165,10 +1157,10 @@
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3"/>
@@ -1190,10 +1182,10 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3"/>
@@ -1215,10 +1207,10 @@
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="3"/>
@@ -1240,10 +1232,10 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="3"/>
@@ -1265,10 +1257,10 @@
       <c r="B9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E9" s="3"/>
@@ -1290,10 +1282,10 @@
       <c r="B10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E10" s="3"/>
@@ -1315,10 +1307,10 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3"/>
@@ -1340,10 +1332,10 @@
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3"/>
@@ -1365,10 +1357,10 @@
       <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="3"/>
@@ -1390,10 +1382,10 @@
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="3"/>
@@ -1415,10 +1407,10 @@
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3"/>
@@ -1440,10 +1432,10 @@
       <c r="B16" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="3"/>
@@ -1465,10 +1457,10 @@
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3"/>
@@ -1490,10 +1482,10 @@
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="3"/>
@@ -1515,10 +1507,10 @@
       <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="3"/>
@@ -1540,10 +1532,10 @@
       <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="3"/>
@@ -1565,10 +1557,10 @@
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="3"/>
@@ -1590,10 +1582,10 @@
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="3"/>
@@ -1615,10 +1607,10 @@
       <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="3"/>
@@ -1640,10 +1632,10 @@
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="3"/>
@@ -1665,10 +1657,10 @@
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="3"/>
@@ -1690,10 +1682,10 @@
       <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3"/>
@@ -1715,10 +1707,10 @@
       <c r="B27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="3"/>
@@ -1740,10 +1732,10 @@
       <c r="B28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3"/>
@@ -1765,10 +1757,10 @@
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="3"/>
@@ -1790,10 +1782,10 @@
       <c r="B30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="3"/>
@@ -1815,10 +1807,10 @@
       <c r="B31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="3"/>
@@ -1840,10 +1832,10 @@
       <c r="B32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="3"/>
@@ -1865,10 +1857,10 @@
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="3"/>
@@ -1890,10 +1882,10 @@
       <c r="B34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="3"/>
@@ -1915,10 +1907,10 @@
       <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E35" s="3"/>
@@ -1940,10 +1932,10 @@
       <c r="B36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E36" s="3"/>
@@ -1965,10 +1957,10 @@
       <c r="B37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E37" s="3"/>
@@ -1990,10 +1982,10 @@
       <c r="B38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="3"/>
@@ -2015,10 +2007,10 @@
       <c r="B39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="3"/>
@@ -2040,10 +2032,10 @@
       <c r="B40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E40" s="3"/>
@@ -2065,10 +2057,10 @@
       <c r="B41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E41" s="3"/>
@@ -2090,10 +2082,10 @@
       <c r="B42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="3"/>
@@ -2115,10 +2107,10 @@
       <c r="B43" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E43" s="3"/>
@@ -2140,10 +2132,10 @@
       <c r="B44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E44" s="3"/>
@@ -2165,10 +2157,10 @@
       <c r="B45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E45" s="3"/>
@@ -2190,10 +2182,10 @@
       <c r="B46" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E46" s="3"/>
@@ -2209,16 +2201,16 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E47" s="3"/>
@@ -2234,16 +2226,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E48" s="3"/>
@@ -2259,16 +2251,16 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E49" s="3"/>
@@ -2284,16 +2276,16 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E50" s="3"/>
@@ -2309,16 +2301,16 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="3"/>
@@ -2333,11 +2325,19 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+    <row r="52" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2350,11 +2350,19 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+    <row r="53" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -18516,6 +18524,10 @@
     <hyperlink ref="D45" r:id="rId98" xr:uid="{EED30EAA-5FAE-4051-8D85-AA3CE62BACD4}"/>
     <hyperlink ref="C46" r:id="rId99" xr:uid="{ACB93456-60AA-484A-96C6-D1DAC36A2F76}"/>
     <hyperlink ref="D46" r:id="rId100" xr:uid="{F7E49122-7398-4584-AF6D-323629C148A7}"/>
+    <hyperlink ref="C52" r:id="rId101" xr:uid="{97AE2CBB-6BD2-46F1-BB08-BF2BC645F7C8}"/>
+    <hyperlink ref="D52" r:id="rId102" xr:uid="{94D17990-C1B7-4D2D-9D34-10A57F4F3CDB}"/>
+    <hyperlink ref="C53" r:id="rId103" xr:uid="{C3CEE1ED-222D-4511-858E-C005536AE49D}"/>
+    <hyperlink ref="D53" r:id="rId104" xr:uid="{21C1C5E7-7A32-4FDC-922B-83644BBC1B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
